--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.9982869522339747</v>
+        <v>-0.9614084219133069</v>
       </c>
       <c r="D2">
-        <v>0.3181881676379859</v>
+        <v>0.3431347699486653</v>
       </c>
       <c r="E2">
         <v>1.370286979120172</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.252424159237604</v>
+        <v>-1.030093843559184</v>
       </c>
       <c r="D3">
-        <v>0.210473470192311</v>
+        <v>0.3102384205220745</v>
       </c>
       <c r="E3">
         <v>1.370286979120172</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.360414470748884</v>
+        <v>-0.9242416843674782</v>
       </c>
       <c r="D4">
-        <v>0.1737596517649711</v>
+        <v>0.3618739130672126</v>
       </c>
       <c r="E4">
         <v>1.370286979120172</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.160601728194061</v>
+        <v>-0.7777706181314397</v>
       </c>
       <c r="D5">
-        <v>0.2458588831916519</v>
+        <v>0.4420830269641263</v>
       </c>
       <c r="E5">
         <v>1.370286979120172</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.630900051704764</v>
+        <v>-0.6541119378806109</v>
       </c>
       <c r="D6">
-        <v>0.5281344912795125</v>
+        <v>0.5174399601905186</v>
       </c>
       <c r="E6">
         <v>1.502563911228626</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.4892277004347152</v>
+        <v>-0.4940317269504514</v>
       </c>
       <c r="D7">
-        <v>0.6247017942447843</v>
+        <v>0.6244605306126427</v>
       </c>
       <c r="E7">
         <v>1.502563911228626</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.5926830248949746</v>
+        <v>-0.5294001909921355</v>
       </c>
       <c r="D8">
-        <v>0.5534198994429818</v>
+        <v>0.5999677572530495</v>
       </c>
       <c r="E8">
         <v>1.502563911228626</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3366551192327755</v>
+        <v>0.2963530163120485</v>
       </c>
       <c r="D9">
-        <v>0.7363909191923681</v>
+        <v>0.7687632408037954</v>
       </c>
       <c r="E9">
         <v>1.640688982575142</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.03713678078853837</v>
+        <v>0.04209592419873306</v>
       </c>
       <c r="D10">
-        <v>0.9703774164689518</v>
+        <v>0.9666684732129343</v>
       </c>
       <c r="E10">
         <v>1.640688982575142</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2784854026000775</v>
+        <v>-0.2686676325921321</v>
       </c>
       <c r="D11">
-        <v>0.780651195876475</v>
+        <v>0.7898090154478539</v>
       </c>
       <c r="E11">
         <v>1.574293991877905</v>
